--- a/Sample Data.xlsx
+++ b/Sample Data.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TraingFramework\Excel\Session2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TraingFramework\Excel\Session3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7CFED7-60FC-4956-83FA-F4977360AB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C29A8F-8C1F-47A5-9B21-ADBB8260CCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{1A99C143-F738-445E-BF96-9111A46CF0A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{1A99C143-F738-445E-BF96-9111A46CF0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Rank" sheetId="1" r:id="rId1"/>
     <sheet name="Vlookup" sheetId="2" r:id="rId2"/>
     <sheet name="Hlook" sheetId="3" r:id="rId3"/>
     <sheet name="xlookup" sheetId="4" r:id="rId4"/>
-    <sheet name="OR" sheetId="6" r:id="rId5"/>
+    <sheet name="Data" sheetId="7" r:id="rId5"/>
+    <sheet name="Data View" sheetId="8" r:id="rId6"/>
+    <sheet name="Nested Vlookup" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
-  <si>
-    <t>Sales</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -73,9 +72,6 @@
     <t>Find the Score for BOB</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
     <t>OrderID</t>
   </si>
   <si>
@@ -88,35 +84,356 @@
     <t>Rank</t>
   </si>
   <si>
-    <t>Opening Stock</t>
-  </si>
-  <si>
-    <t>Closing Stock</t>
-  </si>
-  <si>
     <t>Laptop</t>
   </si>
   <si>
-    <t>Printer</t>
-  </si>
-  <si>
-    <t>Cable</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>AND</t>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Opening 
+Stock</t>
+  </si>
+  <si>
+    <t>Purchase/
+Stock in</t>
+  </si>
+  <si>
+    <t>Number of 
+Units Sold</t>
+  </si>
+  <si>
+    <t>Hand-In-
+Stock</t>
+  </si>
+  <si>
+    <t>Cost Price 
+Per Unit (USD)</t>
+  </si>
+  <si>
+    <t>Cost Price
+Total (USD)</t>
+  </si>
+  <si>
+    <t>P101</t>
+  </si>
+  <si>
+    <t>P102</t>
+  </si>
+  <si>
+    <t>Ethernet Cable</t>
+  </si>
+  <si>
+    <t>P103</t>
+  </si>
+  <si>
+    <t>P104</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>P105</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>P106</t>
+  </si>
+  <si>
+    <t>USB Flash Drive</t>
+  </si>
+  <si>
+    <t>P107</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>HDD</t>
+  </si>
+  <si>
+    <t>P109</t>
+  </si>
+  <si>
+    <t>Mouse Pad</t>
+  </si>
+  <si>
+    <t>P110</t>
+  </si>
+  <si>
+    <t>USB-C Cable</t>
+  </si>
+  <si>
+    <t>P111</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>P112</t>
+  </si>
+  <si>
+    <t>Headphones</t>
+  </si>
+  <si>
+    <t>P113</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>P114</t>
+  </si>
+  <si>
+    <t>External Hard Drive</t>
+  </si>
+  <si>
+    <t>P115</t>
+  </si>
+  <si>
+    <t>Wireless Earbuds</t>
+  </si>
+  <si>
+    <t>P116</t>
+  </si>
+  <si>
+    <t>Webcam</t>
+  </si>
+  <si>
+    <t>P117</t>
+  </si>
+  <si>
+    <t>Desk Chair</t>
+  </si>
+  <si>
+    <t>P118</t>
+  </si>
+  <si>
+    <t>Desk Lamp</t>
+  </si>
+  <si>
+    <t>P119</t>
+  </si>
+  <si>
+    <t>Power Strip</t>
+  </si>
+  <si>
+    <t>P120</t>
+  </si>
+  <si>
+    <t>Wireless Mouse</t>
+  </si>
+  <si>
+    <t>P121</t>
+  </si>
+  <si>
+    <t>Gaming Keyboard</t>
+  </si>
+  <si>
+    <t>P122</t>
+  </si>
+  <si>
+    <t>Gaming Mouse</t>
+  </si>
+  <si>
+    <t>P123</t>
+  </si>
+  <si>
+    <t>Gaming Headset</t>
+  </si>
+  <si>
+    <t>P124</t>
+  </si>
+  <si>
+    <t>Gaming Chair</t>
+  </si>
+  <si>
+    <t>P125</t>
+  </si>
+  <si>
+    <t>Gaming Monitor</t>
+  </si>
+  <si>
+    <t>P126</t>
+  </si>
+  <si>
+    <t>Graphics Card</t>
+  </si>
+  <si>
+    <t>P127</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>P128</t>
+  </si>
+  <si>
+    <t>Motherboard</t>
+  </si>
+  <si>
+    <t>P129</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>P130</t>
+  </si>
+  <si>
+    <t>Power Supply</t>
+  </si>
+  <si>
+    <t>P131</t>
+  </si>
+  <si>
+    <t>PC Case</t>
+  </si>
+  <si>
+    <t>P132</t>
+  </si>
+  <si>
+    <t>CPU Cooler</t>
+  </si>
+  <si>
+    <t>P133</t>
+  </si>
+  <si>
+    <t>Monitor Stand</t>
+  </si>
+  <si>
+    <t>P134</t>
+  </si>
+  <si>
+    <t>Thermal Paste</t>
+  </si>
+  <si>
+    <t>P135</t>
+  </si>
+  <si>
+    <t>Cable Management Kit</t>
+  </si>
+  <si>
+    <t>P136</t>
+  </si>
+  <si>
+    <t>WiFi Adapter</t>
+  </si>
+  <si>
+    <t>P137</t>
+  </si>
+  <si>
+    <t>External DVD Drive</t>
+  </si>
+  <si>
+    <t>P138</t>
+  </si>
+  <si>
+    <t>Printer Cable</t>
+  </si>
+  <si>
+    <t>P139</t>
+  </si>
+  <si>
+    <t>Keyboard Cleaner</t>
+  </si>
+  <si>
+    <t>P140</t>
+  </si>
+  <si>
+    <t>Laptop Cooling Pad</t>
+  </si>
+  <si>
+    <t>P141</t>
+  </si>
+  <si>
+    <t>USB Hub</t>
+  </si>
+  <si>
+    <t>P142</t>
+  </si>
+  <si>
+    <t>Anti-Glare Screen Protector</t>
+  </si>
+  <si>
+    <t>P143</t>
+  </si>
+  <si>
+    <t>USB-C Adapter</t>
+  </si>
+  <si>
+    <t>P144</t>
+  </si>
+  <si>
+    <t>Laptop Sleeve</t>
+  </si>
+  <si>
+    <t>P145</t>
+  </si>
+  <si>
+    <t>Wireless Charger</t>
+  </si>
+  <si>
+    <t>P146</t>
+  </si>
+  <si>
+    <t>Gaming Desk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Smartphones</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Emp ID</t>
+  </si>
+  <si>
+    <t>Sana</t>
+  </si>
+  <si>
+    <t>E101</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>E102</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>E103</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>P1011</t>
+  </si>
+  <si>
+    <t>P1095</t>
+  </si>
+  <si>
+    <t>P1174</t>
+  </si>
+  <si>
+    <t>Charliee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,16 +455,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF272760"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,11 +521,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -170,19 +566,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{02F06EDC-1364-470B-B480-A013C3AD8113}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -491,10 +926,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3E94A0-9E57-41CD-B45B-BDE725D937B9}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,76 +946,76 @@
     <col min="7" max="7" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="11">
+        <v>95</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
-        <v>95</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="11">
+        <v>94</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="11">
         <v>94</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
-        <v>94</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="11">
+        <v>92</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
-        <v>92</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="11">
+        <v>91</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
-        <v>91</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="B7" s="11">
         <v>90</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -611,87 +1049,111 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1310F67B-E624-40FE-A6A5-3B2DE723793E}">
-  <dimension ref="A1:D11"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>101</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>101</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>102</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C3" s="7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>103</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="8" t="str">
+        <f>IFERROR(VLOOKUP(A11,B1:C4,2,0),"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A16" s="8">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>102</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>103</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
+      <c r="B16" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:D9"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -699,175 +1161,202 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEF4183-E529-4D23-B53C-67BDAED2B50F}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.749992370372631"/>
+  </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4">
+        <v>456</v>
+      </c>
+      <c r="C2" s="4">
+        <v>789</v>
+      </c>
+      <c r="D2" s="4">
+        <v>876</v>
+      </c>
+      <c r="E2" s="4">
+        <v>678</v>
+      </c>
+      <c r="F2" s="4">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
+      <c r="B3" s="4">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4">
+        <v>66</v>
+      </c>
+      <c r="D3" s="4">
+        <v>76</v>
+      </c>
+      <c r="E3" s="4">
+        <v>78</v>
+      </c>
+      <c r="F3" s="4">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>456</v>
-      </c>
-      <c r="C2">
-        <v>789</v>
-      </c>
-      <c r="D2">
-        <v>876</v>
-      </c>
-      <c r="E2">
-        <v>678</v>
-      </c>
-      <c r="F2">
+    <row r="10" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5">
+        <f>HLOOKUP(C9,A1:F3,2,0)</f>
         <v>765</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>55</v>
-      </c>
-      <c r="C3">
-        <v>66</v>
-      </c>
-      <c r="D3">
-        <v>76</v>
-      </c>
-      <c r="E3">
-        <v>78</v>
-      </c>
-      <c r="F3">
+    <row r="11" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5">
+        <f>HLOOKUP(C9,A1:F3,3,0)</f>
         <v>998</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1209D39C-57F8-4452-A0D4-F99A3A7CB854}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.14999847407452621"/>
+  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>101</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>101</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>102</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="C3" s="7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>103</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
         <v>102</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="str">
+        <f>_xlfn.XLOOKUP(B7,A1:A4,B1:B4,"NA",0)</f>
+        <v>Bob</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="B9" s="9">
+        <f>_xlfn.XLOOKUP(A9,B1:B4,A1:A4,"NA",0)</f>
         <v>103</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -875,97 +1364,1624 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D436CE-D25C-4A22-926E-43CC323D3352}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50DD1D8-078D-4D68-B13E-AA5F04548323}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="14">
+        <v>70</v>
+      </c>
+      <c r="D2" s="14">
+        <v>30</v>
+      </c>
+      <c r="E2" s="14">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14">
+        <v>80</v>
+      </c>
+      <c r="G2" s="14">
+        <v>900</v>
+      </c>
+      <c r="H2" s="14">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="14">
+        <v>70</v>
+      </c>
+      <c r="D3" s="14">
+        <v>30</v>
+      </c>
+      <c r="E3" s="14">
+        <v>15</v>
+      </c>
+      <c r="F3" s="14">
+        <v>75</v>
+      </c>
+      <c r="G3" s="14">
+        <v>25</v>
+      </c>
+      <c r="H3" s="14">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="14">
+        <v>50</v>
+      </c>
+      <c r="D4" s="14">
+        <v>20</v>
+      </c>
+      <c r="E4" s="14">
+        <v>10</v>
+      </c>
+      <c r="F4" s="14">
+        <v>60</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1200</v>
+      </c>
+      <c r="H4" s="14">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="14">
+        <v>60</v>
+      </c>
+      <c r="D5" s="14">
+        <v>25</v>
+      </c>
+      <c r="E5" s="14">
+        <v>15</v>
+      </c>
+      <c r="F5" s="14">
+        <v>70</v>
+      </c>
+      <c r="G5" s="14">
+        <v>50</v>
+      </c>
+      <c r="H5" s="14">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="14">
+        <v>55</v>
+      </c>
+      <c r="D6" s="14">
+        <v>22</v>
+      </c>
+      <c r="E6" s="14">
+        <v>12</v>
+      </c>
+      <c r="F6" s="14">
+        <v>65</v>
+      </c>
+      <c r="G6" s="14">
+        <v>150</v>
+      </c>
+      <c r="H6" s="14">
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="14">
+        <v>50</v>
+      </c>
+      <c r="D7" s="14">
+        <v>25</v>
+      </c>
+      <c r="E7" s="14">
+        <v>12</v>
+      </c>
+      <c r="F7" s="14">
+        <v>63</v>
+      </c>
+      <c r="G7" s="14">
+        <v>20</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14">
+        <v>50</v>
+      </c>
+      <c r="D8" s="14">
+        <v>22</v>
+      </c>
+      <c r="E8" s="14">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F8" s="14">
+        <v>61</v>
+      </c>
+      <c r="G8" s="14">
+        <v>80</v>
+      </c>
+      <c r="H8" s="14">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="14">
+        <v>60</v>
+      </c>
+      <c r="D9" s="14">
+        <v>25</v>
+      </c>
+      <c r="E9" s="14">
+        <v>12</v>
+      </c>
+      <c r="F9" s="14">
+        <v>73</v>
+      </c>
+      <c r="G9" s="14">
+        <v>60</v>
+      </c>
+      <c r="H9" s="14">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="14">
+        <v>50</v>
+      </c>
+      <c r="D10" s="14">
+        <v>20</v>
+      </c>
+      <c r="E10" s="14">
+        <v>8</v>
+      </c>
+      <c r="F10" s="14">
+        <v>58</v>
+      </c>
+      <c r="G10" s="14">
+        <v>10</v>
+      </c>
+      <c r="H10" s="14">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="14">
+        <v>50</v>
+      </c>
+      <c r="D11" s="14">
+        <v>20</v>
+      </c>
+      <c r="E11" s="14">
+        <v>9</v>
+      </c>
+      <c r="F11" s="14">
+        <v>61</v>
+      </c>
+      <c r="G11" s="14">
+        <v>8</v>
+      </c>
+      <c r="H11" s="14">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="14">
+        <v>40</v>
+      </c>
+      <c r="D12" s="14">
+        <v>15</v>
+      </c>
+      <c r="E12" s="14">
+        <v>5</v>
+      </c>
+      <c r="F12" s="14">
+        <v>-5</v>
+      </c>
+      <c r="G12" s="14">
+        <v>500</v>
+      </c>
+      <c r="H12" s="14">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="14">
+        <v>30</v>
+      </c>
+      <c r="D13" s="14">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14">
+        <v>3</v>
+      </c>
+      <c r="F13" s="14">
+        <v>-6</v>
+      </c>
+      <c r="G13" s="14">
+        <v>100</v>
+      </c>
+      <c r="H13" s="14">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="14">
+        <v>45</v>
+      </c>
+      <c r="D14" s="14">
+        <v>18</v>
+      </c>
+      <c r="E14" s="14">
+        <v>8</v>
+      </c>
+      <c r="F14" s="14">
+        <v>-3</v>
+      </c>
+      <c r="G14" s="14">
+        <v>700</v>
+      </c>
+      <c r="H14" s="14">
+        <v>38500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="14">
+        <v>25</v>
+      </c>
+      <c r="D15" s="14">
+        <v>12</v>
+      </c>
+      <c r="E15" s="14">
+        <v>5</v>
+      </c>
+      <c r="F15" s="14">
+        <v>-2</v>
+      </c>
+      <c r="G15" s="14">
+        <v>200</v>
+      </c>
+      <c r="H15" s="14">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="14">
+        <v>35</v>
+      </c>
+      <c r="D16" s="14">
+        <v>15</v>
+      </c>
+      <c r="E16" s="14">
+        <v>7</v>
+      </c>
+      <c r="F16" s="14">
+        <v>43</v>
+      </c>
+      <c r="G16" s="14">
+        <v>80</v>
+      </c>
+      <c r="H16" s="14">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="14">
+        <v>40</v>
+      </c>
+      <c r="D17" s="14">
+        <v>20</v>
+      </c>
+      <c r="E17" s="14">
+        <v>10</v>
+      </c>
+      <c r="F17" s="14">
+        <v>2</v>
+      </c>
+      <c r="G17" s="14">
+        <v>60</v>
+      </c>
+      <c r="H17" s="14">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="14">
+        <v>20</v>
+      </c>
+      <c r="D18" s="14">
+        <v>8</v>
+      </c>
+      <c r="E18" s="14">
+        <v>3</v>
+      </c>
+      <c r="F18" s="14">
+        <v>25</v>
+      </c>
+      <c r="G18" s="14">
+        <v>150</v>
+      </c>
+      <c r="H18" s="14">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="14">
+        <v>30</v>
+      </c>
+      <c r="D19" s="14">
+        <v>15</v>
+      </c>
+      <c r="E19" s="14">
+        <v>7</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14">
+        <v>30</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="14">
+        <v>40</v>
+      </c>
+      <c r="D20" s="14">
+        <v>20</v>
+      </c>
+      <c r="E20" s="14">
+        <v>8</v>
+      </c>
+      <c r="F20" s="14">
+        <v>52</v>
+      </c>
+      <c r="G20" s="14">
+        <v>25</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="14">
+        <v>35</v>
+      </c>
+      <c r="D21" s="14">
+        <v>15</v>
+      </c>
+      <c r="E21" s="14">
+        <v>5</v>
+      </c>
+      <c r="F21" s="14">
+        <v>45</v>
+      </c>
+      <c r="G21" s="14">
+        <v>40</v>
+      </c>
+      <c r="H21" s="14">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="14">
+        <v>25</v>
+      </c>
+      <c r="D22" s="14">
+        <v>10</v>
+      </c>
+      <c r="E22" s="14">
+        <v>4</v>
+      </c>
+      <c r="F22" s="14">
+        <v>31</v>
+      </c>
+      <c r="G22" s="14">
+        <v>100</v>
+      </c>
+      <c r="H22" s="14">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="14">
+        <v>30</v>
+      </c>
+      <c r="D23" s="14">
+        <v>12</v>
+      </c>
+      <c r="E23" s="14">
+        <v>6</v>
+      </c>
+      <c r="F23" s="14">
+        <v>36</v>
+      </c>
+      <c r="G23" s="14">
+        <v>80</v>
+      </c>
+      <c r="H23" s="14">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="14">
+        <v>20</v>
+      </c>
+      <c r="D24" s="14">
+        <v>8</v>
+      </c>
+      <c r="E24" s="14">
+        <v>3</v>
+      </c>
+      <c r="F24" s="14">
+        <v>25</v>
+      </c>
+      <c r="G24" s="14">
+        <v>120</v>
+      </c>
+      <c r="H24" s="14">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="14">
+        <v>15</v>
+      </c>
+      <c r="D25" s="14">
+        <v>6</v>
+      </c>
+      <c r="E25" s="14">
+        <v>2</v>
+      </c>
+      <c r="F25" s="14">
+        <v>19</v>
+      </c>
+      <c r="G25" s="14">
+        <v>200</v>
+      </c>
+      <c r="H25" s="14">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="14">
+        <v>25</v>
+      </c>
+      <c r="D26" s="14">
+        <v>10</v>
+      </c>
+      <c r="E26" s="14">
+        <v>4</v>
+      </c>
+      <c r="F26" s="14">
+        <v>29</v>
+      </c>
+      <c r="G26" s="14">
+        <v>400</v>
+      </c>
+      <c r="H26" s="14">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="14">
+        <v>40</v>
+      </c>
+      <c r="D27" s="14">
+        <v>18</v>
+      </c>
+      <c r="E27" s="14">
+        <v>9</v>
+      </c>
+      <c r="F27" s="14">
+        <v>49</v>
+      </c>
+      <c r="G27" s="14">
+        <v>600</v>
+      </c>
+      <c r="H27" s="14">
+        <v>29400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="14">
+        <v>30</v>
+      </c>
+      <c r="D28" s="14">
+        <v>15</v>
+      </c>
+      <c r="E28" s="14">
+        <v>7</v>
+      </c>
+      <c r="F28" s="14">
+        <v>38</v>
+      </c>
+      <c r="G28" s="14">
+        <v>350</v>
+      </c>
+      <c r="H28" s="14">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="14">
+        <v>25</v>
+      </c>
+      <c r="D29" s="14">
+        <v>12</v>
+      </c>
+      <c r="E29" s="14">
+        <v>5</v>
+      </c>
+      <c r="F29" s="14">
+        <v>32</v>
+      </c>
+      <c r="G29" s="14">
+        <v>200</v>
+      </c>
+      <c r="H29" s="14">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="14">
+        <v>45</v>
+      </c>
+      <c r="D30" s="14">
+        <v>20</v>
+      </c>
+      <c r="E30" s="14">
+        <v>8</v>
+      </c>
+      <c r="F30" s="14">
+        <v>57</v>
+      </c>
+      <c r="G30" s="14">
+        <v>120</v>
+      </c>
+      <c r="H30" s="14">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="14">
+        <v>35</v>
+      </c>
+      <c r="D31" s="14">
+        <v>15</v>
+      </c>
+      <c r="E31" s="14">
+        <v>6</v>
+      </c>
+      <c r="F31" s="14">
+        <v>44</v>
+      </c>
+      <c r="G31" s="14">
+        <v>100</v>
+      </c>
+      <c r="H31" s="14">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="14">
+        <v>40</v>
+      </c>
+      <c r="D32" s="14">
+        <v>18</v>
+      </c>
+      <c r="E32" s="14">
+        <v>9</v>
+      </c>
+      <c r="F32" s="14">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14">
+        <v>80</v>
+      </c>
+      <c r="H32" s="14">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="14">
+        <v>30</v>
+      </c>
+      <c r="D33" s="14">
+        <v>12</v>
+      </c>
+      <c r="E33" s="14">
+        <v>4</v>
+      </c>
+      <c r="F33" s="14">
+        <v>34</v>
+      </c>
+      <c r="G33" s="14">
+        <v>50</v>
+      </c>
+      <c r="H33" s="14">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="14">
+        <v>25</v>
+      </c>
+      <c r="D34" s="14">
+        <v>10</v>
+      </c>
+      <c r="E34" s="14">
+        <v>3</v>
+      </c>
+      <c r="F34" s="14">
+        <v>28</v>
+      </c>
+      <c r="G34" s="14">
+        <v>30</v>
+      </c>
+      <c r="H34" s="14">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="14">
+        <v>40</v>
+      </c>
+      <c r="D35" s="14">
+        <v>15</v>
+      </c>
+      <c r="E35" s="14">
+        <v>5</v>
+      </c>
+      <c r="F35" s="14">
+        <v>50</v>
+      </c>
+      <c r="G35" s="14">
+        <v>5</v>
+      </c>
+      <c r="H35" s="14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="14">
+        <v>30</v>
+      </c>
+      <c r="D36" s="14">
+        <v>12</v>
+      </c>
+      <c r="E36" s="14">
+        <v>4</v>
+      </c>
+      <c r="F36" s="14">
+        <v>34</v>
+      </c>
+      <c r="G36" s="14">
+        <v>15</v>
+      </c>
+      <c r="H36" s="14">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="14">
+        <v>20</v>
+      </c>
+      <c r="D37" s="14">
+        <v>8</v>
+      </c>
+      <c r="E37" s="14">
+        <v>3</v>
+      </c>
+      <c r="F37" s="14">
+        <v>23</v>
+      </c>
+      <c r="G37" s="14">
+        <v>20</v>
+      </c>
+      <c r="H37" s="14">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="14">
+        <v>15</v>
+      </c>
+      <c r="D38" s="14">
+        <v>6</v>
+      </c>
+      <c r="E38" s="14">
+        <v>2</v>
+      </c>
+      <c r="F38" s="14">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="G38" s="14">
+        <v>50</v>
+      </c>
+      <c r="H38" s="14">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="14">
+        <v>25</v>
+      </c>
+      <c r="D39" s="14">
+        <v>10</v>
+      </c>
+      <c r="E39" s="14">
+        <v>4</v>
+      </c>
+      <c r="F39" s="14">
+        <v>29</v>
+      </c>
+      <c r="G39" s="14">
+        <v>5</v>
+      </c>
+      <c r="H39" s="14">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="14">
+        <v>40</v>
+      </c>
+      <c r="D40" s="14">
         <v>18</v>
       </c>
-      <c r="B2">
+      <c r="E40" s="14">
+        <v>9</v>
+      </c>
+      <c r="F40" s="14">
+        <v>49</v>
+      </c>
+      <c r="G40" s="14">
+        <v>8</v>
+      </c>
+      <c r="H40" s="14">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="14">
+        <v>30</v>
+      </c>
+      <c r="D41" s="14">
+        <v>15</v>
+      </c>
+      <c r="E41" s="14">
+        <v>6</v>
+      </c>
+      <c r="F41" s="14">
+        <v>39</v>
+      </c>
+      <c r="G41" s="14">
+        <v>20</v>
+      </c>
+      <c r="H41" s="14">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="14">
+        <v>35</v>
+      </c>
+      <c r="D42" s="14">
+        <v>12</v>
+      </c>
+      <c r="E42" s="14">
+        <v>4</v>
+      </c>
+      <c r="F42" s="14">
+        <v>31</v>
+      </c>
+      <c r="G42" s="14">
+        <v>15</v>
+      </c>
+      <c r="H42" s="14">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="14">
+        <v>25</v>
+      </c>
+      <c r="D43" s="14">
+        <v>8</v>
+      </c>
+      <c r="E43" s="14">
+        <v>3</v>
+      </c>
+      <c r="F43" s="14">
+        <v>28</v>
+      </c>
+      <c r="G43" s="14">
+        <v>10</v>
+      </c>
+      <c r="H43" s="14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="14">
+        <v>20</v>
+      </c>
+      <c r="D44" s="14">
+        <v>10</v>
+      </c>
+      <c r="E44" s="14">
+        <v>4</v>
+      </c>
+      <c r="F44" s="14">
+        <v>24</v>
+      </c>
+      <c r="G44" s="14">
+        <v>15</v>
+      </c>
+      <c r="H44" s="14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="14">
+        <v>30</v>
+      </c>
+      <c r="D45" s="14">
+        <v>12</v>
+      </c>
+      <c r="E45" s="14">
+        <v>5</v>
+      </c>
+      <c r="F45" s="14">
+        <v>37</v>
+      </c>
+      <c r="G45" s="14">
+        <v>20</v>
+      </c>
+      <c r="H45" s="14">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="14">
+        <v>40</v>
+      </c>
+      <c r="D46" s="14">
+        <v>18</v>
+      </c>
+      <c r="E46" s="14">
+        <v>7</v>
+      </c>
+      <c r="F46" s="14">
+        <v>51</v>
+      </c>
+      <c r="G46" s="14">
+        <v>30</v>
+      </c>
+      <c r="H46" s="14">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="14">
+        <v>25</v>
+      </c>
+      <c r="D47" s="14">
+        <v>10</v>
+      </c>
+      <c r="E47" s="14">
+        <v>3</v>
+      </c>
+      <c r="F47" s="14">
+        <v>28</v>
+      </c>
+      <c r="G47" s="14">
+        <v>150</v>
+      </c>
+      <c r="H47" s="14">
+        <v>4200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F573F6F-640B-4F4C-A9FD-00BA953E59E3}">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" style="17" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313A5B6F-1D4C-4D55-8114-A9FF74C5B136}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="19">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="19">
         <v>5000</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="19">
         <v>6000</v>
       </c>
-      <c r="D2">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
-        <v>3000</v>
-      </c>
-      <c r="C3">
-        <v>9000</v>
-      </c>
-      <c r="D3">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>1000</v>
-      </c>
-      <c r="C4">
-        <v>12000</v>
-      </c>
-      <c r="D4">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>VLOOKUP( VLOOKUP("Sana", A2:B4, 2, FALSE),  D2:E4, 2, FALSE)</f>
         <v>4000</v>
       </c>
-      <c r="C5">
-        <v>15000</v>
-      </c>
-      <c r="D5">
-        <v>8000</v>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>VLOOKUP(VLOOKUP(A2,A1:B4,2,0),D1:E4,2,0)</f>
+        <v>4000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(A2,A1:A4,B1:B4),D1:D4,E1:E4)</f>
+        <v>4000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9">
+        <f>VLOOKUP(VLOOKUP(E8,A1:B4,2,0),D1:E4,2,0)</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(E8,A1:A4,B1:B4,,0),D1:D4,E1:E4,"NA",0)</f>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
